--- a/Tabela_Acoes_Limpo.xlsx
+++ b/Tabela_Acoes_Limpo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\Códigos\TCC\Dividend-Investing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D59A5-4240-4A18-8000-C1F5D3FCC385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C56AE2B-1A19-4876-9873-023443334038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58B326C1-CCF2-4CC6-B032-30684A1D8641}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>ENEV3</t>
   </si>
@@ -594,9 +594,6 @@
   </si>
   <si>
     <t>SYNE3</t>
-  </si>
-  <si>
-    <t>ENAT3</t>
   </si>
   <si>
     <t>GUAR3</t>
@@ -1106,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAB5AAE-439A-4041-B812-ABDB618075F8}">
   <dimension ref="A1:W436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1118,7 +1115,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1198,7 +1195,7 @@
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2516,7 +2513,7 @@
     </row>
     <row r="55" spans="1:23" ht="15" thickBot="1">
       <c r="A55" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2877,9 +2874,7 @@
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:23" ht="15" thickBot="1">
-      <c r="A69" s="9" t="s">
-        <v>186</v>
-      </c>
+      <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -3346,7 +3341,7 @@
     </row>
     <row r="87" spans="1:23" ht="15" thickBot="1">
       <c r="A87" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4614,7 +4609,7 @@
     </row>
     <row r="136" spans="1:23" ht="15" thickBot="1">
       <c r="A136" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -12030,120 +12025,119 @@
     <hyperlink ref="A168" r:id="rId78" display="https://www.fundamentus.com.br/detalhes.php?papel=SMTO3" xr:uid="{CAA1D59D-312F-4642-8E70-05D9D3AA18BE}"/>
     <hyperlink ref="A62" r:id="rId79" display="https://www.fundamentus.com.br/detalhes.php?papel=DIRR3" xr:uid="{8168F1C8-BB54-48DD-894C-070271C4C843}"/>
     <hyperlink ref="A130" r:id="rId80" display="https://www.fundamentus.com.br/detalhes.php?papel=ONCO3" xr:uid="{CBBA83C0-B26B-4F4E-8266-6C453127695A}"/>
-    <hyperlink ref="A69" r:id="rId81" display="https://www.fundamentus.com.br/detalhes.php?papel=ENAT3" xr:uid="{0F26200F-E612-4235-897F-24181EA3A9E2}"/>
-    <hyperlink ref="A167" r:id="rId82" display="https://www.fundamentus.com.br/detalhes.php?papel=SMFT3" xr:uid="{138EDE12-334D-4758-9878-7AC0538BD768}"/>
-    <hyperlink ref="A139" r:id="rId83" display="https://www.fundamentus.com.br/detalhes.php?papel=POMO4" xr:uid="{9C0BB885-15F6-492A-8DE9-EF63908231FB}"/>
-    <hyperlink ref="A154" r:id="rId84" display="https://www.fundamentus.com.br/detalhes.php?papel=RECV3" xr:uid="{E04447D7-AFA3-4DF2-A801-EA7CFCF2C117}"/>
-    <hyperlink ref="A149" r:id="rId85" display="https://www.fundamentus.com.br/detalhes.php?papel=RAIZ4" xr:uid="{96A537BF-7907-4FAB-9917-A50CE272F04B}"/>
-    <hyperlink ref="A133" r:id="rId86" display="https://www.fundamentus.com.br/detalhes.php?papel=PCAR3" xr:uid="{0150C839-9FD2-4B0E-8EA0-41B539A4F669}"/>
-    <hyperlink ref="A113" r:id="rId87" display="https://www.fundamentus.com.br/detalhes.php?papel=LWSA3" xr:uid="{2A2540BB-E81B-4888-9684-92D08AFFE647}"/>
-    <hyperlink ref="A166" r:id="rId88" display="https://www.fundamentus.com.br/detalhes.php?papel=SLCE3" xr:uid="{FB6D6AFE-23D0-423A-82C5-CEA57467F1FE}"/>
-    <hyperlink ref="A136" r:id="rId89" display="https://www.fundamentus.com.br/detalhes.php?papel=PETZ3" xr:uid="{9125B8C7-572F-48C0-95BB-A583E79F770C}"/>
-    <hyperlink ref="A81" r:id="rId90" display="https://www.fundamentus.com.br/detalhes.php?papel=GGPS3" xr:uid="{420FB761-9111-4293-A3C6-0097DD8BD5CF}"/>
-    <hyperlink ref="A77" r:id="rId91" display="https://www.fundamentus.com.br/detalhes.php?papel=FLRY3" xr:uid="{D5B9E3C1-7156-417C-9BDE-3F3E04350A86}"/>
-    <hyperlink ref="A25" r:id="rId92" display="https://www.fundamentus.com.br/detalhes.php?papel=BHIA3" xr:uid="{76D7683C-03C8-4675-9A43-9F1261244AA3}"/>
-    <hyperlink ref="A41" r:id="rId93" display="https://www.fundamentus.com.br/detalhes.php?papel=CEAB3" xr:uid="{BA2A7B9D-47BE-494D-A219-A72080CAB63E}"/>
-    <hyperlink ref="A8" r:id="rId94" display="https://www.fundamentus.com.br/detalhes.php?papel=ALUP11" xr:uid="{75CDB38E-1A47-4552-8BED-2DB1D585F437}"/>
-    <hyperlink ref="A56" r:id="rId95" display="https://www.fundamentus.com.br/detalhes.php?papel=CURY3" xr:uid="{B5B19352-5792-49C3-9645-C58933BBEBA8}"/>
-    <hyperlink ref="A82" r:id="rId96" display="https://www.fundamentus.com.br/detalhes.php?papel=GMAT3" xr:uid="{A0324E90-8E91-499B-BBA5-E29937205AB6}"/>
-    <hyperlink ref="A64" r:id="rId97" display="https://www.fundamentus.com.br/detalhes.php?papel=ECOR3" xr:uid="{C2A5414B-E6FB-4623-BE92-B2F7C6615459}"/>
-    <hyperlink ref="A7" r:id="rId98" display="https://www.fundamentus.com.br/detalhes.php?papel=ALPA4" xr:uid="{155CBC61-867F-410C-865F-A98DEFB03BF5}"/>
-    <hyperlink ref="A54" r:id="rId99" display="https://www.fundamentus.com.br/detalhes.php?papel=CSMG3" xr:uid="{F587B604-15A4-40FA-BE95-D7DB801D0A24}"/>
-    <hyperlink ref="A120" r:id="rId100" display="https://www.fundamentus.com.br/detalhes.php?papel=MOVI3" xr:uid="{134AF266-40FF-485B-969C-E3730F84E818}"/>
-    <hyperlink ref="A115" r:id="rId101" display="https://www.fundamentus.com.br/detalhes.php?papel=MDIA3" xr:uid="{AB4346F2-D628-4BF1-81BB-05D2D266A91D}"/>
-    <hyperlink ref="A39" r:id="rId102" display="https://www.fundamentus.com.br/detalhes.php?papel=CBAV3" xr:uid="{966DB41D-1698-4AD6-BB99-0DBF12E7977D}"/>
-    <hyperlink ref="A178" r:id="rId103" display="https://www.fundamentus.com.br/detalhes.php?papel=TEND3" xr:uid="{FFFAACFE-4317-45E2-897B-17E2144B926F}"/>
-    <hyperlink ref="A151" r:id="rId104" display="https://www.fundamentus.com.br/detalhes.php?papel=RAPT4" xr:uid="{4729E4F6-CBCC-4628-9C18-7DE4BCB71A07}"/>
-    <hyperlink ref="A94" r:id="rId105" display="https://www.fundamentus.com.br/detalhes.php?papel=INTB3" xr:uid="{FDDAD6E2-6AB5-4A25-8E57-4292E6881F0D}"/>
-    <hyperlink ref="A36" r:id="rId106" display="https://www.fundamentus.com.br/detalhes.php?papel=BRSR6" xr:uid="{1A33EAF1-5932-42BF-B3C1-A1EBBBBBC835}"/>
-    <hyperlink ref="A75" r:id="rId107" display="https://www.fundamentus.com.br/detalhes.php?papel=EZTC3" xr:uid="{3E073D62-53CA-4FB3-B2BE-2DC5582685DD}"/>
-    <hyperlink ref="A90" r:id="rId108" display="https://www.fundamentus.com.br/detalhes.php?papel=HBSA3" xr:uid="{C1212145-5EFC-4F2B-9F70-6C8552E10904}"/>
-    <hyperlink ref="A57" r:id="rId109" display="https://www.fundamentus.com.br/detalhes.php?papel=CVCB3" xr:uid="{E9960767-45ED-4798-8653-D1B0F477FA8E}"/>
-    <hyperlink ref="A159" r:id="rId110" display="https://www.fundamentus.com.br/detalhes.php?papel=SAPR11" xr:uid="{B55C8FC6-06C2-43A6-8F95-9626FF931A62}"/>
-    <hyperlink ref="A165" r:id="rId111" display="https://www.fundamentus.com.br/detalhes.php?papel=SIMH3" xr:uid="{3367165E-8A7B-4C2C-919D-919B1AF611F9}"/>
-    <hyperlink ref="A11" r:id="rId112" display="https://www.fundamentus.com.br/detalhes.php?papel=ANIM3" xr:uid="{2D3FD303-8668-4530-BAF2-B3816763D853}"/>
-    <hyperlink ref="A63" r:id="rId113" display="https://www.fundamentus.com.br/detalhes.php?papel=DXCO3" xr:uid="{3F3704E2-A90F-4DE3-9F3D-D3BE10313D17}"/>
-    <hyperlink ref="A9" r:id="rId114" display="https://www.fundamentus.com.br/detalhes.php?papel=AMBP3" xr:uid="{7401C4F8-BFB7-4A4C-882E-A7CF7E85FF4A}"/>
-    <hyperlink ref="A126" r:id="rId115" display="https://www.fundamentus.com.br/detalhes.php?papel=NEOE3" xr:uid="{11119EFE-4512-47DB-9757-B70215C55941}"/>
-    <hyperlink ref="A161" r:id="rId116" display="https://www.fundamentus.com.br/detalhes.php?papel=SBFG3" xr:uid="{153ED3B6-C437-4C4A-8B78-3DEE0EDAD567}"/>
-    <hyperlink ref="A171" r:id="rId117" display="https://www.fundamentus.com.br/detalhes.php?papel=SRNA3" xr:uid="{20A3E913-E96F-4EF2-8EC8-122627D68F61}"/>
-    <hyperlink ref="A110" r:id="rId118" display="https://www.fundamentus.com.br/detalhes.php?papel=LJQQ3" xr:uid="{C2B8661E-49D4-4D28-8EAA-BB012F714F3D}"/>
-    <hyperlink ref="A101" r:id="rId119" display="https://www.fundamentus.com.br/detalhes.php?papel=JHSF3" xr:uid="{0A4BC1A8-3DEE-4EB4-95B3-8CD6A23CFAB9}"/>
-    <hyperlink ref="A2" r:id="rId120" display="https://www.fundamentus.com.br/detalhes.php?papel=ABCB4" xr:uid="{9BD11C98-98D6-462B-8D2D-9261F208671A}"/>
-    <hyperlink ref="A125" r:id="rId121" display="https://www.fundamentus.com.br/detalhes.php?papel=MYPK3" xr:uid="{BF46AE66-D898-4154-BE66-A50D4B2F90EF}"/>
-    <hyperlink ref="A118" r:id="rId122" display="https://www.fundamentus.com.br/detalhes.php?papel=MILS3" xr:uid="{F4396570-87FE-4F76-9CAC-423422166602}"/>
-    <hyperlink ref="A128" r:id="rId123" display="https://www.fundamentus.com.br/detalhes.php?papel=ODPV3" xr:uid="{3ECAE3B5-1683-4692-9D7E-D96A9B447E3A}"/>
-    <hyperlink ref="A43" r:id="rId124" display="https://www.fundamentus.com.br/detalhes.php?papel=CLSA3" xr:uid="{EC0BC97B-3AFE-4E7B-ACDA-5D06CEC6395E}"/>
-    <hyperlink ref="A132" r:id="rId125" display="https://www.fundamentus.com.br/detalhes.php?papel=ORVR3" xr:uid="{4C4DDE27-B64C-431C-AFDC-2A31C03458B4}"/>
-    <hyperlink ref="A186" r:id="rId126" display="https://www.fundamentus.com.br/detalhes.php?papel=TUPY3" xr:uid="{9FBB2373-BEA7-45F9-8B19-3B977DDE1DDA}"/>
-    <hyperlink ref="A87" r:id="rId127" display="https://www.fundamentus.com.br/detalhes.php?papel=GUAR3" xr:uid="{531AB140-9C37-45BA-B7CF-259E618F2066}"/>
-    <hyperlink ref="A30" r:id="rId128" display="https://www.fundamentus.com.br/detalhes.php?papel=BPAN4" xr:uid="{D7B90DC4-1D02-4718-8C0F-B1AB30E14D55}"/>
-    <hyperlink ref="A108" r:id="rId129" display="https://www.fundamentus.com.br/detalhes.php?papel=LEVE3" xr:uid="{9C8177DB-FFF7-4057-A9D1-F73701DFFE89}"/>
-    <hyperlink ref="A38" r:id="rId130" display="https://www.fundamentus.com.br/detalhes.php?papel=CASH3" xr:uid="{F73D32E4-7B2A-4790-B5A7-9DC288D0B7F5}"/>
-    <hyperlink ref="A185" r:id="rId131" display="https://www.fundamentus.com.br/detalhes.php?papel=TTEN3" xr:uid="{25C7CABB-731D-4B47-853C-98951D53DA91}"/>
-    <hyperlink ref="A140" r:id="rId132" display="https://www.fundamentus.com.br/detalhes.php?papel=PORT3" xr:uid="{A31E3D4F-C1DD-4199-B69C-806C63992791}"/>
-    <hyperlink ref="A79" r:id="rId133" display="https://www.fundamentus.com.br/detalhes.php?papel=GFSA3" xr:uid="{D127FCC3-AE7A-4FA5-9E89-7ADBC141DDB2}"/>
-    <hyperlink ref="A141" r:id="rId134" display="https://www.fundamentus.com.br/detalhes.php?papel=POSI3" xr:uid="{8D5D683F-CA00-4D1B-A7E3-2B1622B5ECA6}"/>
-    <hyperlink ref="A84" r:id="rId135" display="https://www.fundamentus.com.br/detalhes.php?papel=GOLL4" xr:uid="{EF979222-2F74-4D90-A10A-005791F515F0}"/>
-    <hyperlink ref="A198" r:id="rId136" display="https://www.fundamentus.com.br/detalhes.php?papel=VULC3" xr:uid="{151258F2-EA77-4B96-AF29-7BC683156420}"/>
-    <hyperlink ref="A188" r:id="rId137" display="https://www.fundamentus.com.br/detalhes.php?papel=UNIP6" xr:uid="{DF0D371F-3E26-4C85-84BE-907CFE40C4D5}"/>
-    <hyperlink ref="A104" r:id="rId138" display="https://www.fundamentus.com.br/detalhes.php?papel=KEPL3" xr:uid="{D9631252-5EAE-4BBB-9201-0CAB9D222FE2}"/>
-    <hyperlink ref="A12" r:id="rId139" display="https://www.fundamentus.com.br/detalhes.php?papel=ARML3" xr:uid="{B19BABD8-A037-4213-A48D-CE47DDAB436E}"/>
-    <hyperlink ref="A137" r:id="rId140" display="https://www.fundamentus.com.br/detalhes.php?papel=PLPL3" xr:uid="{A4176E71-7577-42D5-8ACD-8A69403235E3}"/>
-    <hyperlink ref="A102" r:id="rId141" display="https://www.fundamentus.com.br/detalhes.php?papel=JPSA3" xr:uid="{03FC512C-3811-4667-AE70-9265D48CE071}"/>
-    <hyperlink ref="A37" r:id="rId142" display="https://www.fundamentus.com.br/detalhes.php?papel=CAML3" xr:uid="{EB661422-CF3E-4995-A152-8475161B7AE9}"/>
-    <hyperlink ref="A60" r:id="rId143" display="https://www.fundamentus.com.br/detalhes.php?papel=DASA3" xr:uid="{CF292877-B284-44D7-B6E3-63908061103E}"/>
-    <hyperlink ref="A10" r:id="rId144" display="https://www.fundamentus.com.br/detalhes.php?papel=AMER3" xr:uid="{BA973EA0-4903-4752-94BB-DA45CC4395F7}"/>
-    <hyperlink ref="A146" r:id="rId145" display="https://www.fundamentus.com.br/detalhes.php?papel=QUAL3" xr:uid="{882793E1-4CCB-42FF-9C74-2615484EDDB4}"/>
-    <hyperlink ref="A169" r:id="rId146" display="https://www.fundamentus.com.br/detalhes.php?papel=SOJA3" xr:uid="{045AD539-553B-4F7A-BEAB-2C16CB64CED8}"/>
-    <hyperlink ref="A199" r:id="rId147" display="https://www.fundamentus.com.br/detalhes.php?papel=VVEO3" xr:uid="{E6D327BC-A36F-47AE-BCE7-86DEEC470FF4}"/>
-    <hyperlink ref="A109" r:id="rId148" display="https://www.fundamentus.com.br/detalhes.php?papel=LIGT3" xr:uid="{6FC47A17-194B-47C6-A984-6E9194BAB2B2}"/>
-    <hyperlink ref="A86" r:id="rId149" display="https://www.fundamentus.com.br/detalhes.php?papel=GRND3" xr:uid="{8B0DB8C7-1636-4220-B253-89C124F29523}"/>
-    <hyperlink ref="A180" r:id="rId150" display="https://www.fundamentus.com.br/detalhes.php?papel=TGMA3" xr:uid="{942CBF4E-B10A-44C4-996B-0612CAC4D458}"/>
-    <hyperlink ref="A76" r:id="rId151" display="https://www.fundamentus.com.br/detalhes.php?papel=FESA4" xr:uid="{8B6F2C7E-51A9-46A7-AB8F-69BAD64EB850}"/>
-    <hyperlink ref="A107" r:id="rId152" display="https://www.fundamentus.com.br/detalhes.php?papel=LAVV3" xr:uid="{AFB24FEB-E693-499D-9DD4-146341170618}"/>
-    <hyperlink ref="A150" r:id="rId153" display="https://www.fundamentus.com.br/detalhes.php?papel=RANI3" xr:uid="{9BEC9C28-BD64-40A3-9E5C-FFFA5F7806F9}"/>
-    <hyperlink ref="A197" r:id="rId154" display="https://www.fundamentus.com.br/detalhes.php?papel=VLID3" xr:uid="{4F4B6140-96A6-49B6-8D6C-BDD4ADB6CC8A}"/>
-    <hyperlink ref="A5" r:id="rId155" display="https://www.fundamentus.com.br/detalhes.php?papel=AGRO3" xr:uid="{3D50E6BD-A6CC-409B-AE96-CD8DD939CFF0}"/>
-    <hyperlink ref="A17" r:id="rId156" display="https://www.fundamentus.com.br/detalhes.php?papel=AZEV4" xr:uid="{A8703666-7818-415C-99AE-DCED0C141E6E}"/>
-    <hyperlink ref="A111" r:id="rId157" display="https://www.fundamentus.com.br/detalhes.php?papel=LOGG3" xr:uid="{126DA41E-0D92-4FEA-B9C2-F535E283FF47}"/>
-    <hyperlink ref="A116" r:id="rId158" display="https://www.fundamentus.com.br/detalhes.php?papel=MDNE3" xr:uid="{097E56D3-89AA-4483-8EC6-20301FEFCB3F}"/>
-    <hyperlink ref="A74" r:id="rId159" display="https://www.fundamentus.com.br/detalhes.php?papel=EVEN3" xr:uid="{CE37A691-5054-42AE-B9DF-6B58829F3DBF}"/>
-    <hyperlink ref="A123" r:id="rId160" display="https://www.fundamentus.com.br/detalhes.php?papel=MTRE3" xr:uid="{A703E9DE-4FCC-4935-9E75-ED4D5ABD5FB8}"/>
-    <hyperlink ref="A92" r:id="rId161" display="https://www.fundamentus.com.br/detalhes.php?papel=IFCM3" xr:uid="{0E11DABD-8D4F-4E20-BB59-628F4E92771B}"/>
-    <hyperlink ref="A28" r:id="rId162" display="https://www.fundamentus.com.br/detalhes.php?papel=BMOB3" xr:uid="{F029F0C0-9062-4716-BFC9-DEE9A8CFA96C}"/>
-    <hyperlink ref="A119" r:id="rId163" display="https://www.fundamentus.com.br/detalhes.php?papel=MLAS3" xr:uid="{EBFEC2E9-A4B4-4895-9873-C88EBB2C8E18}"/>
-    <hyperlink ref="A78" r:id="rId164" display="https://www.fundamentus.com.br/detalhes.php?papel=FRAS3" xr:uid="{BD7B4624-0F79-4D76-B417-AB81FBED8E22}"/>
-    <hyperlink ref="A103" r:id="rId165" display="https://www.fundamentus.com.br/detalhes.php?papel=JSLG3" xr:uid="{C91AEA40-76A3-4061-9867-E38AA59A7696}"/>
-    <hyperlink ref="A177" r:id="rId166" display="https://www.fundamentus.com.br/detalhes.php?papel=TASA4" xr:uid="{4F35614E-DF51-432B-ACB9-379897B459E7}"/>
-    <hyperlink ref="A131" r:id="rId167" display="https://www.fundamentus.com.br/detalhes.php?papel=OPCT3" xr:uid="{15673C7E-07D2-4BAC-91EE-2E13E9723633}"/>
-    <hyperlink ref="A129" r:id="rId168" display="https://www.fundamentus.com.br/detalhes.php?papel=OIBR3" xr:uid="{1398CF3B-0DE0-433A-9B0D-9F6F072FA36D}"/>
-    <hyperlink ref="A99" r:id="rId169" display="https://www.fundamentus.com.br/detalhes.php?papel=JALL3" xr:uid="{D6E09EA2-BF6A-4D7E-93C1-3AAB338487D2}"/>
-    <hyperlink ref="A114" r:id="rId170" display="https://www.fundamentus.com.br/detalhes.php?papel=MATD3" xr:uid="{E4EA23E7-C1E3-4C7D-B613-8D04CA9B50A0}"/>
-    <hyperlink ref="A26" r:id="rId171" display="https://www.fundamentus.com.br/detalhes.php?papel=BIOM3" xr:uid="{179E26A3-B225-4C9E-9B84-4403902FFEC2}"/>
-    <hyperlink ref="A203" r:id="rId172" display="https://www.fundamentus.com.br/detalhes.php?papel=ZAMP3" xr:uid="{AF420400-4D32-4BE9-997B-261A39E57CEA}"/>
-    <hyperlink ref="A143" r:id="rId173" display="https://www.fundamentus.com.br/detalhes.php?papel=PRNR3" xr:uid="{19488F53-9303-4A15-9679-3716019E6643}"/>
-    <hyperlink ref="A32" r:id="rId174" display="https://www.fundamentus.com.br/detalhes.php?papel=BRBI11" xr:uid="{5DE810DA-EEED-4168-9644-BD293882F8F6}"/>
-    <hyperlink ref="A138" r:id="rId175" display="https://www.fundamentus.com.br/detalhes.php?papel=PNVL3" xr:uid="{09771E7B-1891-4F5B-B88B-088DA3FB6903}"/>
-    <hyperlink ref="A72" r:id="rId176" display="https://www.fundamentus.com.br/detalhes.php?papel=ENJU3" xr:uid="{D8487097-462D-4629-84EB-25BBEF01FE9B}"/>
-    <hyperlink ref="A61" r:id="rId177" display="https://www.fundamentus.com.br/detalhes.php?papel=DESK3" xr:uid="{222F83EE-9778-4FB0-B7C7-A9B180FEB84B}"/>
-    <hyperlink ref="A145" r:id="rId178" display="https://www.fundamentus.com.br/detalhes.php?papel=PTBL3" xr:uid="{DE1A4D5B-377B-447E-B44A-CA16F2BF3815}"/>
-    <hyperlink ref="A163" r:id="rId179" display="https://www.fundamentus.com.br/detalhes.php?papel=SEER3" xr:uid="{5BA9EF1B-F941-4E30-A1E9-36DDFDB7195A}"/>
-    <hyperlink ref="A53" r:id="rId180" display="https://www.fundamentus.com.br/detalhes.php?papel=CSED3" xr:uid="{B53CDB80-CED8-4C37-A78C-6E95B91D893B}"/>
-    <hyperlink ref="A194" r:id="rId181" display="https://www.fundamentus.com.br/detalhes.php?papel=VITT3" xr:uid="{F07520CE-B763-4C8C-B35F-039A284D404A}"/>
-    <hyperlink ref="A34" r:id="rId182" display="https://www.fundamentus.com.br/detalhes.php?papel=BRIT3" xr:uid="{D367D0D7-EBEC-4F09-ABB8-6C193B5DD5C7}"/>
-    <hyperlink ref="A152" r:id="rId183" display="https://www.fundamentus.com.br/detalhes.php?papel=RCSL3" xr:uid="{10A52594-AD6D-4D7B-BC0D-4D2342C3DF6D}"/>
-    <hyperlink ref="A164" r:id="rId184" display="https://www.fundamentus.com.br/detalhes.php?papel=SHUL4" xr:uid="{7F18C9D3-7C41-4D51-A200-088A682E911F}"/>
-    <hyperlink ref="A27" r:id="rId185" display="https://www.fundamentus.com.br/detalhes.php?papel=BLAU3" xr:uid="{D14CE910-47FD-4B57-8ABB-ADE504278FFC}"/>
-    <hyperlink ref="A85" r:id="rId186" display="https://www.fundamentus.com.br/detalhes.php?papel=GPIV33" xr:uid="{5C267559-2755-4DDF-B835-EA9E1871BE9B}"/>
-    <hyperlink ref="A201" r:id="rId187" display="https://www.fundamentus.com.br/detalhes.php?papel=WIZC3" xr:uid="{BE06C1FC-11B0-4C67-BE18-68C240F3F020}"/>
-    <hyperlink ref="A89" r:id="rId188" display="https://www.fundamentus.com.br/detalhes.php?papel=HBRE3" xr:uid="{BD72B9DA-8580-4C67-83FE-A676259ADE46}"/>
-    <hyperlink ref="A179" r:id="rId189" display="https://www.fundamentus.com.br/detalhes.php?papel=TFCO4" xr:uid="{74EA18BE-6543-4E88-8335-7B8EBEAB50BA}"/>
-    <hyperlink ref="A183" r:id="rId190" display="https://www.fundamentus.com.br/detalhes.php?papel=TRIS3" xr:uid="{CAD79C83-3B83-4A5A-8172-A812E95C9268}"/>
-    <hyperlink ref="A174" r:id="rId191" display="https://www.fundamentus.com.br/detalhes.php?papel=SYNE3" xr:uid="{732213E2-EFD9-4A75-BB5D-C25CD4059C41}"/>
-    <hyperlink ref="A156" r:id="rId192" display="https://www.fundamentus.com.br/detalhes.php?papel=ROMI3" xr:uid="{3F1D787D-3610-4FFB-B84A-72192AEECCF4}"/>
+    <hyperlink ref="A167" r:id="rId81" display="https://www.fundamentus.com.br/detalhes.php?papel=SMFT3" xr:uid="{138EDE12-334D-4758-9878-7AC0538BD768}"/>
+    <hyperlink ref="A139" r:id="rId82" display="https://www.fundamentus.com.br/detalhes.php?papel=POMO4" xr:uid="{9C0BB885-15F6-492A-8DE9-EF63908231FB}"/>
+    <hyperlink ref="A154" r:id="rId83" display="https://www.fundamentus.com.br/detalhes.php?papel=RECV3" xr:uid="{E04447D7-AFA3-4DF2-A801-EA7CFCF2C117}"/>
+    <hyperlink ref="A149" r:id="rId84" display="https://www.fundamentus.com.br/detalhes.php?papel=RAIZ4" xr:uid="{96A537BF-7907-4FAB-9917-A50CE272F04B}"/>
+    <hyperlink ref="A133" r:id="rId85" display="https://www.fundamentus.com.br/detalhes.php?papel=PCAR3" xr:uid="{0150C839-9FD2-4B0E-8EA0-41B539A4F669}"/>
+    <hyperlink ref="A113" r:id="rId86" display="https://www.fundamentus.com.br/detalhes.php?papel=LWSA3" xr:uid="{2A2540BB-E81B-4888-9684-92D08AFFE647}"/>
+    <hyperlink ref="A166" r:id="rId87" display="https://www.fundamentus.com.br/detalhes.php?papel=SLCE3" xr:uid="{FB6D6AFE-23D0-423A-82C5-CEA57467F1FE}"/>
+    <hyperlink ref="A136" r:id="rId88" display="https://www.fundamentus.com.br/detalhes.php?papel=PETZ3" xr:uid="{9125B8C7-572F-48C0-95BB-A583E79F770C}"/>
+    <hyperlink ref="A81" r:id="rId89" display="https://www.fundamentus.com.br/detalhes.php?papel=GGPS3" xr:uid="{420FB761-9111-4293-A3C6-0097DD8BD5CF}"/>
+    <hyperlink ref="A77" r:id="rId90" display="https://www.fundamentus.com.br/detalhes.php?papel=FLRY3" xr:uid="{D5B9E3C1-7156-417C-9BDE-3F3E04350A86}"/>
+    <hyperlink ref="A25" r:id="rId91" display="https://www.fundamentus.com.br/detalhes.php?papel=BHIA3" xr:uid="{76D7683C-03C8-4675-9A43-9F1261244AA3}"/>
+    <hyperlink ref="A41" r:id="rId92" display="https://www.fundamentus.com.br/detalhes.php?papel=CEAB3" xr:uid="{BA2A7B9D-47BE-494D-A219-A72080CAB63E}"/>
+    <hyperlink ref="A8" r:id="rId93" display="https://www.fundamentus.com.br/detalhes.php?papel=ALUP11" xr:uid="{75CDB38E-1A47-4552-8BED-2DB1D585F437}"/>
+    <hyperlink ref="A56" r:id="rId94" display="https://www.fundamentus.com.br/detalhes.php?papel=CURY3" xr:uid="{B5B19352-5792-49C3-9645-C58933BBEBA8}"/>
+    <hyperlink ref="A82" r:id="rId95" display="https://www.fundamentus.com.br/detalhes.php?papel=GMAT3" xr:uid="{A0324E90-8E91-499B-BBA5-E29937205AB6}"/>
+    <hyperlink ref="A64" r:id="rId96" display="https://www.fundamentus.com.br/detalhes.php?papel=ECOR3" xr:uid="{C2A5414B-E6FB-4623-BE92-B2F7C6615459}"/>
+    <hyperlink ref="A7" r:id="rId97" display="https://www.fundamentus.com.br/detalhes.php?papel=ALPA4" xr:uid="{155CBC61-867F-410C-865F-A98DEFB03BF5}"/>
+    <hyperlink ref="A54" r:id="rId98" display="https://www.fundamentus.com.br/detalhes.php?papel=CSMG3" xr:uid="{F587B604-15A4-40FA-BE95-D7DB801D0A24}"/>
+    <hyperlink ref="A120" r:id="rId99" display="https://www.fundamentus.com.br/detalhes.php?papel=MOVI3" xr:uid="{134AF266-40FF-485B-969C-E3730F84E818}"/>
+    <hyperlink ref="A115" r:id="rId100" display="https://www.fundamentus.com.br/detalhes.php?papel=MDIA3" xr:uid="{AB4346F2-D628-4BF1-81BB-05D2D266A91D}"/>
+    <hyperlink ref="A39" r:id="rId101" display="https://www.fundamentus.com.br/detalhes.php?papel=CBAV3" xr:uid="{966DB41D-1698-4AD6-BB99-0DBF12E7977D}"/>
+    <hyperlink ref="A178" r:id="rId102" display="https://www.fundamentus.com.br/detalhes.php?papel=TEND3" xr:uid="{FFFAACFE-4317-45E2-897B-17E2144B926F}"/>
+    <hyperlink ref="A151" r:id="rId103" display="https://www.fundamentus.com.br/detalhes.php?papel=RAPT4" xr:uid="{4729E4F6-CBCC-4628-9C18-7DE4BCB71A07}"/>
+    <hyperlink ref="A94" r:id="rId104" display="https://www.fundamentus.com.br/detalhes.php?papel=INTB3" xr:uid="{FDDAD6E2-6AB5-4A25-8E57-4292E6881F0D}"/>
+    <hyperlink ref="A36" r:id="rId105" display="https://www.fundamentus.com.br/detalhes.php?papel=BRSR6" xr:uid="{1A33EAF1-5932-42BF-B3C1-A1EBBBBBC835}"/>
+    <hyperlink ref="A75" r:id="rId106" display="https://www.fundamentus.com.br/detalhes.php?papel=EZTC3" xr:uid="{3E073D62-53CA-4FB3-B2BE-2DC5582685DD}"/>
+    <hyperlink ref="A90" r:id="rId107" display="https://www.fundamentus.com.br/detalhes.php?papel=HBSA3" xr:uid="{C1212145-5EFC-4F2B-9F70-6C8552E10904}"/>
+    <hyperlink ref="A57" r:id="rId108" display="https://www.fundamentus.com.br/detalhes.php?papel=CVCB3" xr:uid="{E9960767-45ED-4798-8653-D1B0F477FA8E}"/>
+    <hyperlink ref="A159" r:id="rId109" display="https://www.fundamentus.com.br/detalhes.php?papel=SAPR11" xr:uid="{B55C8FC6-06C2-43A6-8F95-9626FF931A62}"/>
+    <hyperlink ref="A165" r:id="rId110" display="https://www.fundamentus.com.br/detalhes.php?papel=SIMH3" xr:uid="{3367165E-8A7B-4C2C-919D-919B1AF611F9}"/>
+    <hyperlink ref="A11" r:id="rId111" display="https://www.fundamentus.com.br/detalhes.php?papel=ANIM3" xr:uid="{2D3FD303-8668-4530-BAF2-B3816763D853}"/>
+    <hyperlink ref="A63" r:id="rId112" display="https://www.fundamentus.com.br/detalhes.php?papel=DXCO3" xr:uid="{3F3704E2-A90F-4DE3-9F3D-D3BE10313D17}"/>
+    <hyperlink ref="A9" r:id="rId113" display="https://www.fundamentus.com.br/detalhes.php?papel=AMBP3" xr:uid="{7401C4F8-BFB7-4A4C-882E-A7CF7E85FF4A}"/>
+    <hyperlink ref="A126" r:id="rId114" display="https://www.fundamentus.com.br/detalhes.php?papel=NEOE3" xr:uid="{11119EFE-4512-47DB-9757-B70215C55941}"/>
+    <hyperlink ref="A161" r:id="rId115" display="https://www.fundamentus.com.br/detalhes.php?papel=SBFG3" xr:uid="{153ED3B6-C437-4C4A-8B78-3DEE0EDAD567}"/>
+    <hyperlink ref="A171" r:id="rId116" display="https://www.fundamentus.com.br/detalhes.php?papel=SRNA3" xr:uid="{20A3E913-E96F-4EF2-8EC8-122627D68F61}"/>
+    <hyperlink ref="A110" r:id="rId117" display="https://www.fundamentus.com.br/detalhes.php?papel=LJQQ3" xr:uid="{C2B8661E-49D4-4D28-8EAA-BB012F714F3D}"/>
+    <hyperlink ref="A101" r:id="rId118" display="https://www.fundamentus.com.br/detalhes.php?papel=JHSF3" xr:uid="{0A4BC1A8-3DEE-4EB4-95B3-8CD6A23CFAB9}"/>
+    <hyperlink ref="A2" r:id="rId119" display="https://www.fundamentus.com.br/detalhes.php?papel=ABCB4" xr:uid="{9BD11C98-98D6-462B-8D2D-9261F208671A}"/>
+    <hyperlink ref="A125" r:id="rId120" display="https://www.fundamentus.com.br/detalhes.php?papel=MYPK3" xr:uid="{BF46AE66-D898-4154-BE66-A50D4B2F90EF}"/>
+    <hyperlink ref="A118" r:id="rId121" display="https://www.fundamentus.com.br/detalhes.php?papel=MILS3" xr:uid="{F4396570-87FE-4F76-9CAC-423422166602}"/>
+    <hyperlink ref="A128" r:id="rId122" display="https://www.fundamentus.com.br/detalhes.php?papel=ODPV3" xr:uid="{3ECAE3B5-1683-4692-9D7E-D96A9B447E3A}"/>
+    <hyperlink ref="A43" r:id="rId123" display="https://www.fundamentus.com.br/detalhes.php?papel=CLSA3" xr:uid="{EC0BC97B-3AFE-4E7B-ACDA-5D06CEC6395E}"/>
+    <hyperlink ref="A132" r:id="rId124" display="https://www.fundamentus.com.br/detalhes.php?papel=ORVR3" xr:uid="{4C4DDE27-B64C-431C-AFDC-2A31C03458B4}"/>
+    <hyperlink ref="A186" r:id="rId125" display="https://www.fundamentus.com.br/detalhes.php?papel=TUPY3" xr:uid="{9FBB2373-BEA7-45F9-8B19-3B977DDE1DDA}"/>
+    <hyperlink ref="A87" r:id="rId126" display="https://www.fundamentus.com.br/detalhes.php?papel=GUAR3" xr:uid="{531AB140-9C37-45BA-B7CF-259E618F2066}"/>
+    <hyperlink ref="A30" r:id="rId127" display="https://www.fundamentus.com.br/detalhes.php?papel=BPAN4" xr:uid="{D7B90DC4-1D02-4718-8C0F-B1AB30E14D55}"/>
+    <hyperlink ref="A108" r:id="rId128" display="https://www.fundamentus.com.br/detalhes.php?papel=LEVE3" xr:uid="{9C8177DB-FFF7-4057-A9D1-F73701DFFE89}"/>
+    <hyperlink ref="A38" r:id="rId129" display="https://www.fundamentus.com.br/detalhes.php?papel=CASH3" xr:uid="{F73D32E4-7B2A-4790-B5A7-9DC288D0B7F5}"/>
+    <hyperlink ref="A185" r:id="rId130" display="https://www.fundamentus.com.br/detalhes.php?papel=TTEN3" xr:uid="{25C7CABB-731D-4B47-853C-98951D53DA91}"/>
+    <hyperlink ref="A140" r:id="rId131" display="https://www.fundamentus.com.br/detalhes.php?papel=PORT3" xr:uid="{A31E3D4F-C1DD-4199-B69C-806C63992791}"/>
+    <hyperlink ref="A79" r:id="rId132" display="https://www.fundamentus.com.br/detalhes.php?papel=GFSA3" xr:uid="{D127FCC3-AE7A-4FA5-9E89-7ADBC141DDB2}"/>
+    <hyperlink ref="A141" r:id="rId133" display="https://www.fundamentus.com.br/detalhes.php?papel=POSI3" xr:uid="{8D5D683F-CA00-4D1B-A7E3-2B1622B5ECA6}"/>
+    <hyperlink ref="A84" r:id="rId134" display="https://www.fundamentus.com.br/detalhes.php?papel=GOLL4" xr:uid="{EF979222-2F74-4D90-A10A-005791F515F0}"/>
+    <hyperlink ref="A198" r:id="rId135" display="https://www.fundamentus.com.br/detalhes.php?papel=VULC3" xr:uid="{151258F2-EA77-4B96-AF29-7BC683156420}"/>
+    <hyperlink ref="A188" r:id="rId136" display="https://www.fundamentus.com.br/detalhes.php?papel=UNIP6" xr:uid="{DF0D371F-3E26-4C85-84BE-907CFE40C4D5}"/>
+    <hyperlink ref="A104" r:id="rId137" display="https://www.fundamentus.com.br/detalhes.php?papel=KEPL3" xr:uid="{D9631252-5EAE-4BBB-9201-0CAB9D222FE2}"/>
+    <hyperlink ref="A12" r:id="rId138" display="https://www.fundamentus.com.br/detalhes.php?papel=ARML3" xr:uid="{B19BABD8-A037-4213-A48D-CE47DDAB436E}"/>
+    <hyperlink ref="A137" r:id="rId139" display="https://www.fundamentus.com.br/detalhes.php?papel=PLPL3" xr:uid="{A4176E71-7577-42D5-8ACD-8A69403235E3}"/>
+    <hyperlink ref="A102" r:id="rId140" display="https://www.fundamentus.com.br/detalhes.php?papel=JPSA3" xr:uid="{03FC512C-3811-4667-AE70-9265D48CE071}"/>
+    <hyperlink ref="A37" r:id="rId141" display="https://www.fundamentus.com.br/detalhes.php?papel=CAML3" xr:uid="{EB661422-CF3E-4995-A152-8475161B7AE9}"/>
+    <hyperlink ref="A60" r:id="rId142" display="https://www.fundamentus.com.br/detalhes.php?papel=DASA3" xr:uid="{CF292877-B284-44D7-B6E3-63908061103E}"/>
+    <hyperlink ref="A10" r:id="rId143" display="https://www.fundamentus.com.br/detalhes.php?papel=AMER3" xr:uid="{BA973EA0-4903-4752-94BB-DA45CC4395F7}"/>
+    <hyperlink ref="A146" r:id="rId144" display="https://www.fundamentus.com.br/detalhes.php?papel=QUAL3" xr:uid="{882793E1-4CCB-42FF-9C74-2615484EDDB4}"/>
+    <hyperlink ref="A169" r:id="rId145" display="https://www.fundamentus.com.br/detalhes.php?papel=SOJA3" xr:uid="{045AD539-553B-4F7A-BEAB-2C16CB64CED8}"/>
+    <hyperlink ref="A199" r:id="rId146" display="https://www.fundamentus.com.br/detalhes.php?papel=VVEO3" xr:uid="{E6D327BC-A36F-47AE-BCE7-86DEEC470FF4}"/>
+    <hyperlink ref="A109" r:id="rId147" display="https://www.fundamentus.com.br/detalhes.php?papel=LIGT3" xr:uid="{6FC47A17-194B-47C6-A984-6E9194BAB2B2}"/>
+    <hyperlink ref="A86" r:id="rId148" display="https://www.fundamentus.com.br/detalhes.php?papel=GRND3" xr:uid="{8B0DB8C7-1636-4220-B253-89C124F29523}"/>
+    <hyperlink ref="A180" r:id="rId149" display="https://www.fundamentus.com.br/detalhes.php?papel=TGMA3" xr:uid="{942CBF4E-B10A-44C4-996B-0612CAC4D458}"/>
+    <hyperlink ref="A76" r:id="rId150" display="https://www.fundamentus.com.br/detalhes.php?papel=FESA4" xr:uid="{8B6F2C7E-51A9-46A7-AB8F-69BAD64EB850}"/>
+    <hyperlink ref="A107" r:id="rId151" display="https://www.fundamentus.com.br/detalhes.php?papel=LAVV3" xr:uid="{AFB24FEB-E693-499D-9DD4-146341170618}"/>
+    <hyperlink ref="A150" r:id="rId152" display="https://www.fundamentus.com.br/detalhes.php?papel=RANI3" xr:uid="{9BEC9C28-BD64-40A3-9E5C-FFFA5F7806F9}"/>
+    <hyperlink ref="A197" r:id="rId153" display="https://www.fundamentus.com.br/detalhes.php?papel=VLID3" xr:uid="{4F4B6140-96A6-49B6-8D6C-BDD4ADB6CC8A}"/>
+    <hyperlink ref="A5" r:id="rId154" display="https://www.fundamentus.com.br/detalhes.php?papel=AGRO3" xr:uid="{3D50E6BD-A6CC-409B-AE96-CD8DD939CFF0}"/>
+    <hyperlink ref="A17" r:id="rId155" display="https://www.fundamentus.com.br/detalhes.php?papel=AZEV4" xr:uid="{A8703666-7818-415C-99AE-DCED0C141E6E}"/>
+    <hyperlink ref="A111" r:id="rId156" display="https://www.fundamentus.com.br/detalhes.php?papel=LOGG3" xr:uid="{126DA41E-0D92-4FEA-B9C2-F535E283FF47}"/>
+    <hyperlink ref="A116" r:id="rId157" display="https://www.fundamentus.com.br/detalhes.php?papel=MDNE3" xr:uid="{097E56D3-89AA-4483-8EC6-20301FEFCB3F}"/>
+    <hyperlink ref="A74" r:id="rId158" display="https://www.fundamentus.com.br/detalhes.php?papel=EVEN3" xr:uid="{CE37A691-5054-42AE-B9DF-6B58829F3DBF}"/>
+    <hyperlink ref="A123" r:id="rId159" display="https://www.fundamentus.com.br/detalhes.php?papel=MTRE3" xr:uid="{A703E9DE-4FCC-4935-9E75-ED4D5ABD5FB8}"/>
+    <hyperlink ref="A92" r:id="rId160" display="https://www.fundamentus.com.br/detalhes.php?papel=IFCM3" xr:uid="{0E11DABD-8D4F-4E20-BB59-628F4E92771B}"/>
+    <hyperlink ref="A28" r:id="rId161" display="https://www.fundamentus.com.br/detalhes.php?papel=BMOB3" xr:uid="{F029F0C0-9062-4716-BFC9-DEE9A8CFA96C}"/>
+    <hyperlink ref="A119" r:id="rId162" display="https://www.fundamentus.com.br/detalhes.php?papel=MLAS3" xr:uid="{EBFEC2E9-A4B4-4895-9873-C88EBB2C8E18}"/>
+    <hyperlink ref="A78" r:id="rId163" display="https://www.fundamentus.com.br/detalhes.php?papel=FRAS3" xr:uid="{BD7B4624-0F79-4D76-B417-AB81FBED8E22}"/>
+    <hyperlink ref="A103" r:id="rId164" display="https://www.fundamentus.com.br/detalhes.php?papel=JSLG3" xr:uid="{C91AEA40-76A3-4061-9867-E38AA59A7696}"/>
+    <hyperlink ref="A177" r:id="rId165" display="https://www.fundamentus.com.br/detalhes.php?papel=TASA4" xr:uid="{4F35614E-DF51-432B-ACB9-379897B459E7}"/>
+    <hyperlink ref="A131" r:id="rId166" display="https://www.fundamentus.com.br/detalhes.php?papel=OPCT3" xr:uid="{15673C7E-07D2-4BAC-91EE-2E13E9723633}"/>
+    <hyperlink ref="A129" r:id="rId167" display="https://www.fundamentus.com.br/detalhes.php?papel=OIBR3" xr:uid="{1398CF3B-0DE0-433A-9B0D-9F6F072FA36D}"/>
+    <hyperlink ref="A99" r:id="rId168" display="https://www.fundamentus.com.br/detalhes.php?papel=JALL3" xr:uid="{D6E09EA2-BF6A-4D7E-93C1-3AAB338487D2}"/>
+    <hyperlink ref="A114" r:id="rId169" display="https://www.fundamentus.com.br/detalhes.php?papel=MATD3" xr:uid="{E4EA23E7-C1E3-4C7D-B613-8D04CA9B50A0}"/>
+    <hyperlink ref="A26" r:id="rId170" display="https://www.fundamentus.com.br/detalhes.php?papel=BIOM3" xr:uid="{179E26A3-B225-4C9E-9B84-4403902FFEC2}"/>
+    <hyperlink ref="A203" r:id="rId171" display="https://www.fundamentus.com.br/detalhes.php?papel=ZAMP3" xr:uid="{AF420400-4D32-4BE9-997B-261A39E57CEA}"/>
+    <hyperlink ref="A143" r:id="rId172" display="https://www.fundamentus.com.br/detalhes.php?papel=PRNR3" xr:uid="{19488F53-9303-4A15-9679-3716019E6643}"/>
+    <hyperlink ref="A32" r:id="rId173" display="https://www.fundamentus.com.br/detalhes.php?papel=BRBI11" xr:uid="{5DE810DA-EEED-4168-9644-BD293882F8F6}"/>
+    <hyperlink ref="A138" r:id="rId174" display="https://www.fundamentus.com.br/detalhes.php?papel=PNVL3" xr:uid="{09771E7B-1891-4F5B-B88B-088DA3FB6903}"/>
+    <hyperlink ref="A72" r:id="rId175" display="https://www.fundamentus.com.br/detalhes.php?papel=ENJU3" xr:uid="{D8487097-462D-4629-84EB-25BBEF01FE9B}"/>
+    <hyperlink ref="A61" r:id="rId176" display="https://www.fundamentus.com.br/detalhes.php?papel=DESK3" xr:uid="{222F83EE-9778-4FB0-B7C7-A9B180FEB84B}"/>
+    <hyperlink ref="A145" r:id="rId177" display="https://www.fundamentus.com.br/detalhes.php?papel=PTBL3" xr:uid="{DE1A4D5B-377B-447E-B44A-CA16F2BF3815}"/>
+    <hyperlink ref="A163" r:id="rId178" display="https://www.fundamentus.com.br/detalhes.php?papel=SEER3" xr:uid="{5BA9EF1B-F941-4E30-A1E9-36DDFDB7195A}"/>
+    <hyperlink ref="A53" r:id="rId179" display="https://www.fundamentus.com.br/detalhes.php?papel=CSED3" xr:uid="{B53CDB80-CED8-4C37-A78C-6E95B91D893B}"/>
+    <hyperlink ref="A194" r:id="rId180" display="https://www.fundamentus.com.br/detalhes.php?papel=VITT3" xr:uid="{F07520CE-B763-4C8C-B35F-039A284D404A}"/>
+    <hyperlink ref="A34" r:id="rId181" display="https://www.fundamentus.com.br/detalhes.php?papel=BRIT3" xr:uid="{D367D0D7-EBEC-4F09-ABB8-6C193B5DD5C7}"/>
+    <hyperlink ref="A152" r:id="rId182" display="https://www.fundamentus.com.br/detalhes.php?papel=RCSL3" xr:uid="{10A52594-AD6D-4D7B-BC0D-4D2342C3DF6D}"/>
+    <hyperlink ref="A164" r:id="rId183" display="https://www.fundamentus.com.br/detalhes.php?papel=SHUL4" xr:uid="{7F18C9D3-7C41-4D51-A200-088A682E911F}"/>
+    <hyperlink ref="A27" r:id="rId184" display="https://www.fundamentus.com.br/detalhes.php?papel=BLAU3" xr:uid="{D14CE910-47FD-4B57-8ABB-ADE504278FFC}"/>
+    <hyperlink ref="A85" r:id="rId185" display="https://www.fundamentus.com.br/detalhes.php?papel=GPIV33" xr:uid="{5C267559-2755-4DDF-B835-EA9E1871BE9B}"/>
+    <hyperlink ref="A201" r:id="rId186" display="https://www.fundamentus.com.br/detalhes.php?papel=WIZC3" xr:uid="{BE06C1FC-11B0-4C67-BE18-68C240F3F020}"/>
+    <hyperlink ref="A89" r:id="rId187" display="https://www.fundamentus.com.br/detalhes.php?papel=HBRE3" xr:uid="{BD72B9DA-8580-4C67-83FE-A676259ADE46}"/>
+    <hyperlink ref="A179" r:id="rId188" display="https://www.fundamentus.com.br/detalhes.php?papel=TFCO4" xr:uid="{74EA18BE-6543-4E88-8335-7B8EBEAB50BA}"/>
+    <hyperlink ref="A183" r:id="rId189" display="https://www.fundamentus.com.br/detalhes.php?papel=TRIS3" xr:uid="{CAD79C83-3B83-4A5A-8172-A812E95C9268}"/>
+    <hyperlink ref="A174" r:id="rId190" display="https://www.fundamentus.com.br/detalhes.php?papel=SYNE3" xr:uid="{732213E2-EFD9-4A75-BB5D-C25CD4059C41}"/>
+    <hyperlink ref="A156" r:id="rId191" display="https://www.fundamentus.com.br/detalhes.php?papel=ROMI3" xr:uid="{3F1D787D-3610-4FFB-B84A-72192AEECCF4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId193"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId192"/>
 </worksheet>
 </file>